--- a/datastatic/datasets/online/SDG16_Regulatory_Quality_Impact_Assessment_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG16_Regulatory_Quality_Impact_Assessment_OECD_2014.xlsx
@@ -508,7 +508,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1634,9 +1634,9 @@
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="29"/>
-      <c r="M37" s="30">
+      <c r="M37" s="30" t="str">
         <f t="shared" ref="M37:M69" si="1">F37-K37</f>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -1668,9 +1668,9 @@
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="29"/>
-      <c r="M38" s="30">
+      <c r="M38" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -1702,9 +1702,9 @@
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="29"/>
-      <c r="M39" s="30">
+      <c r="M39" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -1736,9 +1736,9 @@
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="29"/>
-      <c r="M40" s="30">
+      <c r="M40" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -1770,9 +1770,9 @@
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="29"/>
-      <c r="M41" s="30">
+      <c r="M41" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -1804,9 +1804,9 @@
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="29"/>
-      <c r="M42" s="30">
+      <c r="M42" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -1838,9 +1838,9 @@
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="29"/>
-      <c r="M43" s="30">
+      <c r="M43" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -1872,9 +1872,9 @@
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="29"/>
-      <c r="M44" s="30">
+      <c r="M44" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -1906,9 +1906,9 @@
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="29"/>
-      <c r="M45" s="30">
+      <c r="M45" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1940,9 +1940,9 @@
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="29"/>
-      <c r="M46" s="30">
+      <c r="M46" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -1974,9 +1974,9 @@
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="29"/>
-      <c r="M47" s="30">
+      <c r="M47" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -2008,9 +2008,9 @@
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="29"/>
-      <c r="M48" s="30">
+      <c r="M48" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -2042,9 +2042,9 @@
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
       <c r="L49" s="29"/>
-      <c r="M49" s="30">
+      <c r="M49" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -2076,9 +2076,9 @@
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
       <c r="L50" s="29"/>
-      <c r="M50" s="30">
+      <c r="M50" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -2110,9 +2110,9 @@
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="30">
+      <c r="M51" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
@@ -2144,9 +2144,9 @@
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
       <c r="L52" s="29"/>
-      <c r="M52" s="30">
+      <c r="M52" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -2178,9 +2178,9 @@
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
       <c r="L53" s="29"/>
-      <c r="M53" s="30">
+      <c r="M53" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -2212,9 +2212,9 @@
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
       <c r="L54" s="29"/>
-      <c r="M54" s="30">
+      <c r="M54" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -2246,9 +2246,9 @@
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" s="29"/>
-      <c r="M55" s="30">
+      <c r="M55" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -2280,9 +2280,9 @@
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="29"/>
-      <c r="M56" s="30">
+      <c r="M56" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -2314,9 +2314,9 @@
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
       <c r="L57" s="29"/>
-      <c r="M57" s="30">
+      <c r="M57" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -2348,9 +2348,9 @@
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="29"/>
-      <c r="M58" s="30">
+      <c r="M58" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -2382,9 +2382,9 @@
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
       <c r="L59" s="29"/>
-      <c r="M59" s="30">
+      <c r="M59" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -2416,9 +2416,9 @@
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="30">
+      <c r="M60" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -2450,9 +2450,9 @@
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="30">
+      <c r="M61" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -2484,9 +2484,9 @@
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
       <c r="L62" s="29"/>
-      <c r="M62" s="30">
+      <c r="M62" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
@@ -2518,9 +2518,9 @@
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
       <c r="L63" s="29"/>
-      <c r="M63" s="30">
+      <c r="M63" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
@@ -2552,9 +2552,9 @@
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
       <c r="L64" s="29"/>
-      <c r="M64" s="30">
+      <c r="M64" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
@@ -2586,9 +2586,9 @@
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
       <c r="L65" s="29"/>
-      <c r="M65" s="30">
+      <c r="M65" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -2620,9 +2620,9 @@
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
       <c r="L66" s="29"/>
-      <c r="M66" s="30">
+      <c r="M66" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
@@ -2654,9 +2654,9 @@
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
       <c r="L67" s="29"/>
-      <c r="M67" s="30">
+      <c r="M67" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -2688,9 +2688,9 @@
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
       <c r="L68" s="29"/>
-      <c r="M68" s="30">
+      <c r="M68" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
@@ -2722,9 +2722,9 @@
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
       <c r="L69" s="35"/>
-      <c r="M69" s="30">
+      <c r="M69" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>

--- a/datastatic/datasets/online/SDG16_Regulatory_Quality_Impact_Assessment_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG16_Regulatory_Quality_Impact_Assessment_OECD_2014.xlsx
@@ -508,7 +508,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -1634,9 +1634,9 @@
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
       <c r="L37" s="29"/>
-      <c r="M37" s="30" t="str">
+      <c r="M37" s="30">
         <f t="shared" ref="M37:M69" si="1">F37-K37</f>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -1668,9 +1668,9 @@
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
       <c r="L38" s="29"/>
-      <c r="M38" s="30" t="str">
+      <c r="M38" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -1702,9 +1702,9 @@
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="29"/>
-      <c r="M39" s="30" t="str">
+      <c r="M39" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -1736,9 +1736,9 @@
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="29"/>
-      <c r="M40" s="30" t="str">
+      <c r="M40" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -1770,9 +1770,9 @@
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="29"/>
-      <c r="M41" s="30" t="str">
+      <c r="M41" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -1804,9 +1804,9 @@
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
       <c r="L42" s="29"/>
-      <c r="M42" s="30" t="str">
+      <c r="M42" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -1838,9 +1838,9 @@
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="29"/>
-      <c r="M43" s="30" t="str">
+      <c r="M43" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -1872,9 +1872,9 @@
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="29"/>
-      <c r="M44" s="30" t="str">
+      <c r="M44" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -1906,9 +1906,9 @@
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="29"/>
-      <c r="M45" s="30" t="str">
+      <c r="M45" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1940,9 +1940,9 @@
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="29"/>
-      <c r="M46" s="30" t="str">
+      <c r="M46" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -1974,9 +1974,9 @@
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="29"/>
-      <c r="M47" s="30" t="str">
+      <c r="M47" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
@@ -2008,9 +2008,9 @@
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="29"/>
-      <c r="M48" s="30" t="str">
+      <c r="M48" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -2042,9 +2042,9 @@
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
       <c r="L49" s="29"/>
-      <c r="M49" s="30" t="str">
+      <c r="M49" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -2076,9 +2076,9 @@
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
       <c r="L50" s="29"/>
-      <c r="M50" s="30" t="str">
+      <c r="M50" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
@@ -2110,9 +2110,9 @@
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="30" t="str">
+      <c r="M51" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
@@ -2144,9 +2144,9 @@
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
       <c r="L52" s="29"/>
-      <c r="M52" s="30" t="str">
+      <c r="M52" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
@@ -2178,9 +2178,9 @@
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
       <c r="L53" s="29"/>
-      <c r="M53" s="30" t="str">
+      <c r="M53" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -2212,9 +2212,9 @@
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
       <c r="L54" s="29"/>
-      <c r="M54" s="30" t="str">
+      <c r="M54" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -2246,9 +2246,9 @@
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
       <c r="L55" s="29"/>
-      <c r="M55" s="30" t="str">
+      <c r="M55" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -2280,9 +2280,9 @@
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
       <c r="L56" s="29"/>
-      <c r="M56" s="30" t="str">
+      <c r="M56" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
@@ -2314,9 +2314,9 @@
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
       <c r="L57" s="29"/>
-      <c r="M57" s="30" t="str">
+      <c r="M57" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -2348,9 +2348,9 @@
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
       <c r="L58" s="29"/>
-      <c r="M58" s="30" t="str">
+      <c r="M58" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -2382,9 +2382,9 @@
       <c r="J59" s="28"/>
       <c r="K59" s="28"/>
       <c r="L59" s="29"/>
-      <c r="M59" s="30" t="str">
+      <c r="M59" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -2416,9 +2416,9 @@
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="30" t="str">
+      <c r="M60" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -2450,9 +2450,9 @@
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="30" t="str">
+      <c r="M61" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -2484,9 +2484,9 @@
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
       <c r="L62" s="29"/>
-      <c r="M62" s="30" t="str">
+      <c r="M62" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
@@ -2518,9 +2518,9 @@
       <c r="J63" s="28"/>
       <c r="K63" s="28"/>
       <c r="L63" s="29"/>
-      <c r="M63" s="30" t="str">
+      <c r="M63" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
@@ -2552,9 +2552,9 @@
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
       <c r="L64" s="29"/>
-      <c r="M64" s="30" t="str">
+      <c r="M64" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
@@ -2586,9 +2586,9 @@
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
       <c r="L65" s="29"/>
-      <c r="M65" s="30" t="str">
+      <c r="M65" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -2620,9 +2620,9 @@
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
       <c r="L66" s="29"/>
-      <c r="M66" s="30" t="str">
+      <c r="M66" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
@@ -2654,9 +2654,9 @@
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
       <c r="L67" s="29"/>
-      <c r="M67" s="30" t="str">
+      <c r="M67" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -2688,9 +2688,9 @@
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
       <c r="L68" s="29"/>
-      <c r="M68" s="30" t="str">
+      <c r="M68" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
@@ -2722,9 +2722,9 @@
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
       <c r="L69" s="35"/>
-      <c r="M69" s="30" t="str">
+      <c r="M69" s="30">
         <f t="shared" si="1"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
